--- a/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{407C0BD7-71CD-BD46-8AB0-D40A11611743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D7B2D-1F25-A149-8A99-E542AAECDC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,11 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+  <si>
+    <t>Merhaba Dünya</t>
+  </si>
+  <si>
+    <t>Merhaba ?Dünya</t>
+  </si>
+  <si>
+    <t>Hello my Friends</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,39 +352,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.1640625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+    <row r="1">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
+      <c r="B1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J1" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>Merhaba Dünya</t>
   </si>
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,33 +365,6 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E1" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F1" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G1" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I1" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J1" t="n">
-        <v>9.0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D7B2D-1F25-A149-8A99-E542AAECDC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB67BDC-CDEA-3A4D-91BE-E1C91B76F13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,15 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="3">
   <si>
-    <t>Merhaba Dünya</t>
+    <t>Hello my Friends</t>
   </si>
   <si>
-    <t>Merhaba ?Dünya</t>
+    <t>X</t>
   </si>
   <si>
-    <t>Hello my Friends</t>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -70,8 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,18 +356,1423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="21.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642271C5-1216-F249-A26F-7F527BAAA0EA}">
+  <dimension ref="B2:F81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" style="1" width="10.83203125" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" t="n">
+        <v>90.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB67BDC-CDEA-3A4D-91BE-E1C91B76F13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43383947-D4BE-8C48-B220-2B8171B13B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="3">
   <si>
     <t>Hello my Friends</t>
   </si>
@@ -71,10 +71,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,43 +361,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="21.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
+      <c r="B1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J1" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -406,1373 +409,1373 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642271C5-1216-F249-A26F-7F527BAAA0EA}">
   <dimension ref="B2:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" style="1" width="10.83203125" collapsed="false"/>
+    <col min="1" max="16384" style="1" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" t="n">
-        <v>2.0</v>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="n">
-        <v>2.0</v>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.0</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
-        <v>2.0</v>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n">
-        <v>2.0</v>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>4.0</v>
+      <c r="D5">
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n">
-        <v>2.0</v>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>5.0</v>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="n">
-        <v>2.0</v>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.0</v>
+      <c r="D7">
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="n">
-        <v>2.0</v>
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.0</v>
+      <c r="D8">
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="n">
-        <v>2.0</v>
+      <c r="F8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
-        <v>8.0</v>
+      <c r="D9">
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="n">
-        <v>2.0</v>
+      <c r="F9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>9.0</v>
+      <c r="D10">
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="F10" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="n">
-        <v>2.0</v>
+      <c r="F10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>10.0</v>
+      <c r="D11">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
-      <c r="F11" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="n">
-        <v>3.0</v>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>1.0</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="n">
-        <v>3.0</v>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
-        <v>2.0</v>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
-      <c r="F13" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="n">
-        <v>3.0</v>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="n">
-        <v>3.0</v>
+      <c r="D14">
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="n">
-        <v>3.0</v>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
-        <v>4.0</v>
+      <c r="D15">
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="n">
-        <v>3.0</v>
+      <c r="F15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
-        <v>5.0</v>
+      <c r="D16">
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="n">
-        <v>3.0</v>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>6.0</v>
+      <c r="D17">
+        <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="n">
-        <v>3.0</v>
+      <c r="F17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>7.0</v>
+      <c r="D18">
+        <v>7</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
-      <c r="F18" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="n">
-        <v>3.0</v>
+      <c r="F18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="n">
-        <v>8.0</v>
+      <c r="D19">
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="F19" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="n">
-        <v>3.0</v>
+      <c r="F19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
-        <v>9.0</v>
+      <c r="D20">
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="F20" t="n">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="n">
-        <v>3.0</v>
+      <c r="F20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
-        <v>10.0</v>
+      <c r="D21">
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
-      <c r="F21" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="n">
-        <v>4.0</v>
+      <c r="F21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>1.0</v>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
-      <c r="F22" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="n">
-        <v>4.0</v>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" t="n">
-        <v>2.0</v>
+      <c r="D23">
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
-      <c r="F23" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="n">
-        <v>4.0</v>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" t="n">
-        <v>3.0</v>
+      <c r="D24">
+        <v>3</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
-      <c r="F24" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="n">
-        <v>4.0</v>
+      <c r="F24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" t="n">
-        <v>4.0</v>
+      <c r="D25">
+        <v>4</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="n">
-        <v>4.0</v>
+      <c r="F25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
-      <c r="D26" t="n">
-        <v>5.0</v>
+      <c r="D26">
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
-      <c r="F26" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="n">
-        <v>4.0</v>
+      <c r="F26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" t="n">
-        <v>6.0</v>
+      <c r="D27">
+        <v>6</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
-      <c r="F27" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="n">
-        <v>4.0</v>
+      <c r="F27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>7.0</v>
+      <c r="D28">
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
-      <c r="F28" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="n">
-        <v>4.0</v>
+      <c r="F28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" t="n">
-        <v>8.0</v>
+      <c r="D29">
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
-      <c r="F29" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="n">
-        <v>4.0</v>
+      <c r="F29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
-      <c r="D30" t="n">
-        <v>9.0</v>
+      <c r="D30">
+        <v>9</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
-      <c r="F30" t="n">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="n">
-        <v>4.0</v>
+      <c r="F30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D31" t="n">
-        <v>10.0</v>
+      <c r="D31">
+        <v>10</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
-      <c r="F31" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="n">
-        <v>5.0</v>
+      <c r="F31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="D32" t="n">
-        <v>1.0</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
       </c>
-      <c r="F32" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="n">
-        <v>5.0</v>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" t="n">
-        <v>2.0</v>
+      <c r="D33">
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
       </c>
-      <c r="F33" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="n">
-        <v>5.0</v>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" t="n">
-        <v>3.0</v>
+      <c r="D34">
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
       </c>
-      <c r="F34" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="n">
-        <v>5.0</v>
+      <c r="F34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" t="n">
-        <v>4.0</v>
+      <c r="D35">
+        <v>4</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
       </c>
-      <c r="F35" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="n">
-        <v>5.0</v>
+      <c r="F35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
-      <c r="D36" t="n">
-        <v>5.0</v>
+      <c r="D36">
+        <v>5</v>
       </c>
       <c r="E36" t="s">
         <v>2</v>
       </c>
-      <c r="F36" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="n">
-        <v>5.0</v>
+      <c r="F36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
-      <c r="D37" t="n">
-        <v>6.0</v>
+      <c r="D37">
+        <v>6</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
       </c>
-      <c r="F37" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="n">
-        <v>5.0</v>
+      <c r="F37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
-      <c r="D38" t="n">
-        <v>7.0</v>
+      <c r="D38">
+        <v>7</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
       </c>
-      <c r="F38" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="n">
-        <v>5.0</v>
+      <c r="F38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
-      <c r="D39" t="n">
-        <v>8.0</v>
+      <c r="D39">
+        <v>8</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
       </c>
-      <c r="F39" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="n">
-        <v>5.0</v>
+      <c r="F39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
-      <c r="D40" t="n">
-        <v>9.0</v>
+      <c r="D40">
+        <v>9</v>
       </c>
       <c r="E40" t="s">
         <v>2</v>
       </c>
-      <c r="F40" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="n">
-        <v>5.0</v>
+      <c r="F40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
-      <c r="D41" t="n">
-        <v>10.0</v>
+      <c r="D41">
+        <v>10</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
       </c>
-      <c r="F41" t="n">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="n">
-        <v>6.0</v>
+      <c r="F41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
-      <c r="D42" t="n">
-        <v>1.0</v>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
       </c>
-      <c r="F42" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="n">
-        <v>6.0</v>
+      <c r="F42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
-      <c r="D43" t="n">
-        <v>2.0</v>
+      <c r="D43">
+        <v>2</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
       </c>
-      <c r="F43" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="n">
-        <v>6.0</v>
+      <c r="F43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
-      <c r="D44" t="n">
-        <v>3.0</v>
+      <c r="D44">
+        <v>3</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
       </c>
-      <c r="F44" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="n">
-        <v>6.0</v>
+      <c r="F44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
-      <c r="D45" t="n">
-        <v>4.0</v>
+      <c r="D45">
+        <v>4</v>
       </c>
       <c r="E45" t="s">
         <v>2</v>
       </c>
-      <c r="F45" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="n">
-        <v>6.0</v>
+      <c r="F45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>5.0</v>
+      <c r="D46">
+        <v>5</v>
       </c>
       <c r="E46" t="s">
         <v>2</v>
       </c>
-      <c r="F46" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="n">
-        <v>6.0</v>
+      <c r="F46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
-      <c r="D47" t="n">
-        <v>6.0</v>
+      <c r="D47">
+        <v>6</v>
       </c>
       <c r="E47" t="s">
         <v>2</v>
       </c>
-      <c r="F47" t="n">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="n">
-        <v>6.0</v>
+      <c r="F47">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>7.0</v>
+      <c r="D48">
+        <v>7</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
       </c>
-      <c r="F48" t="n">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="n">
-        <v>6.0</v>
+      <c r="F48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
-      <c r="D49" t="n">
-        <v>8.0</v>
+      <c r="D49">
+        <v>8</v>
       </c>
       <c r="E49" t="s">
         <v>2</v>
       </c>
-      <c r="F49" t="n">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="n">
-        <v>6.0</v>
+      <c r="F49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
-        <v>9.0</v>
+      <c r="D50">
+        <v>9</v>
       </c>
       <c r="E50" t="s">
         <v>2</v>
       </c>
-      <c r="F50" t="n">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="n">
-        <v>6.0</v>
+      <c r="F50">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
-      <c r="D51" t="n">
-        <v>10.0</v>
+      <c r="D51">
+        <v>10</v>
       </c>
       <c r="E51" t="s">
         <v>2</v>
       </c>
-      <c r="F51" t="n">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="n">
-        <v>7.0</v>
+      <c r="F51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
-      <c r="D52" t="n">
-        <v>1.0</v>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>2</v>
       </c>
-      <c r="F52" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="n">
-        <v>7.0</v>
+      <c r="F52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
-      <c r="D53" t="n">
-        <v>2.0</v>
+      <c r="D53">
+        <v>2</v>
       </c>
       <c r="E53" t="s">
         <v>2</v>
       </c>
-      <c r="F53" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="n">
-        <v>7.0</v>
+      <c r="F53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
-      <c r="D54" t="n">
-        <v>3.0</v>
+      <c r="D54">
+        <v>3</v>
       </c>
       <c r="E54" t="s">
         <v>2</v>
       </c>
-      <c r="F54" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="n">
-        <v>7.0</v>
+      <c r="F54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
-      <c r="D55" t="n">
-        <v>4.0</v>
+      <c r="D55">
+        <v>4</v>
       </c>
       <c r="E55" t="s">
         <v>2</v>
       </c>
-      <c r="F55" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="n">
-        <v>7.0</v>
+      <c r="F55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
-      <c r="D56" t="n">
-        <v>5.0</v>
+      <c r="D56">
+        <v>5</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
       </c>
-      <c r="F56" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="n">
-        <v>7.0</v>
+      <c r="F56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
-      <c r="D57" t="n">
-        <v>6.0</v>
+      <c r="D57">
+        <v>6</v>
       </c>
       <c r="E57" t="s">
         <v>2</v>
       </c>
-      <c r="F57" t="n">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="n">
-        <v>7.0</v>
+      <c r="F57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
-      <c r="D58" t="n">
-        <v>7.0</v>
+      <c r="D58">
+        <v>7</v>
       </c>
       <c r="E58" t="s">
         <v>2</v>
       </c>
-      <c r="F58" t="n">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="n">
-        <v>7.0</v>
+      <c r="F58">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
-      <c r="D59" t="n">
-        <v>8.0</v>
+      <c r="D59">
+        <v>8</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
       </c>
-      <c r="F59" t="n">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="n">
-        <v>7.0</v>
+      <c r="F59">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
-      <c r="D60" t="n">
-        <v>9.0</v>
+      <c r="D60">
+        <v>9</v>
       </c>
       <c r="E60" t="s">
         <v>2</v>
       </c>
-      <c r="F60" t="n">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="n">
-        <v>7.0</v>
+      <c r="F60">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
-      <c r="D61" t="n">
-        <v>10.0</v>
+      <c r="D61">
+        <v>10</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
       </c>
-      <c r="F61" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="n">
-        <v>8.0</v>
+      <c r="F61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
-      <c r="D62" t="n">
-        <v>1.0</v>
+      <c r="D62">
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>2</v>
       </c>
-      <c r="F62" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="n">
-        <v>8.0</v>
+      <c r="F62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
-      <c r="D63" t="n">
-        <v>2.0</v>
+      <c r="D63">
+        <v>2</v>
       </c>
       <c r="E63" t="s">
         <v>2</v>
       </c>
-      <c r="F63" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="n">
-        <v>8.0</v>
+      <c r="F63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
-      <c r="D64" t="n">
-        <v>3.0</v>
+      <c r="D64">
+        <v>3</v>
       </c>
       <c r="E64" t="s">
         <v>2</v>
       </c>
-      <c r="F64" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="n">
-        <v>8.0</v>
+      <c r="F64">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>4.0</v>
+      <c r="D65">
+        <v>4</v>
       </c>
       <c r="E65" t="s">
         <v>2</v>
       </c>
-      <c r="F65" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" t="n">
-        <v>8.0</v>
+      <c r="F65">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
-      <c r="D66" t="n">
-        <v>5.0</v>
+      <c r="D66">
+        <v>5</v>
       </c>
       <c r="E66" t="s">
         <v>2</v>
       </c>
-      <c r="F66" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="n">
-        <v>8.0</v>
+      <c r="F66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
-      <c r="D67" t="n">
-        <v>6.0</v>
+      <c r="D67">
+        <v>6</v>
       </c>
       <c r="E67" t="s">
         <v>2</v>
       </c>
-      <c r="F67" t="n">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="n">
-        <v>8.0</v>
+      <c r="F67">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
-      <c r="D68" t="n">
-        <v>7.0</v>
+      <c r="D68">
+        <v>7</v>
       </c>
       <c r="E68" t="s">
         <v>2</v>
       </c>
-      <c r="F68" t="n">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="n">
-        <v>8.0</v>
+      <c r="F68">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
-      <c r="D69" t="n">
-        <v>8.0</v>
+      <c r="D69">
+        <v>8</v>
       </c>
       <c r="E69" t="s">
         <v>2</v>
       </c>
-      <c r="F69" t="n">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" t="n">
-        <v>8.0</v>
+      <c r="F69">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
-      <c r="D70" t="n">
-        <v>9.0</v>
+      <c r="D70">
+        <v>9</v>
       </c>
       <c r="E70" t="s">
         <v>2</v>
       </c>
-      <c r="F70" t="n">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="n">
-        <v>8.0</v>
+      <c r="F70">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
-      <c r="D71" t="n">
-        <v>10.0</v>
+      <c r="D71">
+        <v>10</v>
       </c>
       <c r="E71" t="s">
         <v>2</v>
       </c>
-      <c r="F71" t="n">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="n">
-        <v>9.0</v>
+      <c r="F71">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>9</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
-      <c r="D72" t="n">
-        <v>1.0</v>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>2</v>
       </c>
-      <c r="F72" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="n">
-        <v>9.0</v>
+      <c r="F72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>9</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
-        <v>2.0</v>
+      <c r="D73">
+        <v>2</v>
       </c>
       <c r="E73" t="s">
         <v>2</v>
       </c>
-      <c r="F73" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="n">
-        <v>9.0</v>
+      <c r="F73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>9</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
-      <c r="D74" t="n">
-        <v>3.0</v>
+      <c r="D74">
+        <v>3</v>
       </c>
       <c r="E74" t="s">
         <v>2</v>
       </c>
-      <c r="F74" t="n">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="n">
-        <v>9.0</v>
+      <c r="F74">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>9</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
-      <c r="D75" t="n">
-        <v>4.0</v>
+      <c r="D75">
+        <v>4</v>
       </c>
       <c r="E75" t="s">
         <v>2</v>
       </c>
-      <c r="F75" t="n">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" t="n">
-        <v>9.0</v>
+      <c r="F75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>9</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
-      <c r="D76" t="n">
-        <v>5.0</v>
+      <c r="D76">
+        <v>5</v>
       </c>
       <c r="E76" t="s">
         <v>2</v>
       </c>
-      <c r="F76" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="n">
-        <v>9.0</v>
+      <c r="F76">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>9</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
-      <c r="D77" t="n">
-        <v>6.0</v>
+      <c r="D77">
+        <v>6</v>
       </c>
       <c r="E77" t="s">
         <v>2</v>
       </c>
-      <c r="F77" t="n">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" t="n">
-        <v>9.0</v>
+      <c r="F77">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>9</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
-      <c r="D78" t="n">
-        <v>7.0</v>
+      <c r="D78">
+        <v>7</v>
       </c>
       <c r="E78" t="s">
         <v>2</v>
       </c>
-      <c r="F78" t="n">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="n">
-        <v>9.0</v>
+      <c r="F78">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>9</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
-      <c r="D79" t="n">
-        <v>8.0</v>
+      <c r="D79">
+        <v>8</v>
       </c>
       <c r="E79" t="s">
         <v>2</v>
       </c>
-      <c r="F79" t="n">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="n">
-        <v>9.0</v>
+      <c r="F79">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>9</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
-      <c r="D80" t="n">
-        <v>9.0</v>
+      <c r="D80">
+        <v>9</v>
       </c>
       <c r="E80" t="s">
         <v>2</v>
       </c>
-      <c r="F80" t="n">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="n">
-        <v>9.0</v>
+      <c r="F80">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>9</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
-      <c r="D81" t="n">
-        <v>10.0</v>
+      <c r="D81">
+        <v>10</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>
       </c>
-      <c r="F81" t="n">
-        <v>90.0</v>
+      <c r="F81">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC10F18A-E5E1-6049-8610-F3BE22834C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D62DEB4-AE0C-854D-B969-32A7D39D08A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="16">
   <si>
     <t>Hello my Friends</t>
   </si>
@@ -35,6 +37,45 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no  </t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soyad </t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayşe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temur   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yılmaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yıldız  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veli    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehmet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samet  </t>
+  </si>
+  <si>
+    <t>Select * from actor</t>
   </si>
 </sst>
 </file>
@@ -70,10 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,16 +399,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,6 +440,14 @@
       </c>
       <c r="J1">
         <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -405,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642271C5-1216-F249-A26F-7F527BAAA0EA}">
   <dimension ref="B2:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1777,4 +1831,1334 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9D415D-5983-EF43-88B2-CCBC7CB4FC78}">
+  <dimension ref="B2:AV11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>8</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>12</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>21</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>24</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>16</v>
+      </c>
+      <c r="T5" s="1">
+        <v>5</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>28</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>32</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>15</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>20</v>
+      </c>
+      <c r="T6" s="1">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>5</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>24</v>
+      </c>
+      <c r="T7" s="1">
+        <v>5</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>6</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>36</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>42</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>48</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>28</v>
+      </c>
+      <c r="T8" s="1">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>7</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>49</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>56</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>32</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>8</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>48</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>56</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>27</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>36</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>9</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>54</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>63</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>72</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>30</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>40</v>
+      </c>
+      <c r="T11" s="1">
+        <v>5</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>10</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>60</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>70</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>80</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70B9F12-0854-7D40-8508-4D2C9EDC3954}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>50349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D62DEB4-AE0C-854D-B969-32A7D39D08A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3910E6-9FF0-D34D-A1FB-0692FD589A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="4">
   <si>
     <t>Hello my Friends</t>
   </si>
@@ -37,42 +36,6 @@
   </si>
   <si>
     <t>=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no  </t>
-  </si>
-  <si>
-    <t>Ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soyad </t>
-  </si>
-  <si>
-    <t>Telefon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayşe   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temur   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yılmaz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yıldız  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veli    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehmet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samet  </t>
   </si>
   <si>
     <t>Select * from actor</t>
@@ -111,13 +74,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +407,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3069,96 +3029,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70B9F12-0854-7D40-8508-4D2C9EDC3954}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>50345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>50349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>50348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>50344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>